--- a/Донороство_в_России_и_СНГ/события с 2018 года.xlsx
+++ b/Донороство_в_России_и_СНГ/события с 2018 года.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
   <si>
     <t>Дата</t>
   </si>
@@ -30,77 +30,6 @@
     <t>тип события</t>
   </si>
   <si>
-    <t>Переход на сайт Ruby</t>
-  </si>
-  <si>
-    <t>Сбой базы (утеря данных)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Переход на сайт Python </t>
-  </si>
-  <si>
-    <t>Обновиление страницы с адресами станций</t>
-  </si>
-  <si>
-    <t>Введение ТОП доноров</t>
-  </si>
-  <si>
-    <t>Обновиление журнала о донорстве</t>
-  </si>
-  <si>
-    <t>Спецпроект https://april20.donorsearch.org/</t>
-  </si>
-  <si>
-    <t>Пользователь получил возможность редактировать свой username.</t>
-  </si>
-  <si>
-    <t>Интеграция парсера потребностей центров крови из сайта ЯДОНОР (yadonor.ru)</t>
-  </si>
-  <si>
-    <t>Регистрация через Email.</t>
-  </si>
-  <si>
-    <t>Спецпроект https://donorday2021.donorsearch.org/</t>
-  </si>
-  <si>
-    <t>Запуск регистрации интеграции по АПИ с сервисом - кошелёк https://koshelek.app/bonusnaya-karta-donorsearch</t>
-  </si>
-  <si>
-    <t>Добавили нижнее меню в мобильной версии.</t>
-  </si>
-  <si>
-    <t>Баннеры со спец проектами поднять вверх на главной:</t>
-  </si>
-  <si>
-    <t>для неавторизованных пользователей создать баннер "Donorsarch - Твой путеводитель" и отображать его первым;</t>
-  </si>
-  <si>
-    <t>для авторизованных сразу отображаются спецпроеты.</t>
-  </si>
-  <si>
-    <t>Ротация потребностей центров крови на главной.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карточки потребностей центров крови на главной - отображать 10 штук, по следующему приоритету: 
-по городу юзера, если нет из города, то по региону, если нет региона, то остальные;
-по наличию у центра крови потребности в группе крови пользователя;
-по наличию у пользователя донаций в центре крови;
-по приоритету центра крови. Вывели на карточку потребности город и адрес. Отображаем на главной ТОП доноров и статусы доноров (потенциальный, начинающий, легендарный и так далее).
-</t>
-  </si>
-  <si>
-    <t>Появились советы доноров на главной.</t>
-  </si>
-  <si>
-    <t>Обновили журнал о донорстве 2 https://journal.donorsearch.org/</t>
-  </si>
-  <si>
-    <t>Ввели поиск доноров крови.</t>
-  </si>
-  <si>
-    <t>Спецпроект - Яндекс Такси для доноров</t>
-  </si>
-  <si>
     <t>Выборы президента</t>
   </si>
   <si>
@@ -167,17 +96,6 @@
     <t>ЧМ по гутболу</t>
   </si>
   <si>
-    <t>Переход с виджета планирования на детальную ЦК, горматирование виджета "добавить донацию".</t>
-  </si>
-  <si>
-    <t>Кнопка в гутере "установи приложение на главный экран".</t>
-  </si>
-  <si>
-    <t>Перенесли мероприятия из unity.donorsearch.org внутрь платгормы:
-https://donorsearch.org/events/1073/
-https://donorsearch.org/events/1077/</t>
-  </si>
-  <si>
     <t>открытие  "Турецкого потока"</t>
   </si>
   <si>
@@ -374,9 +292,6 @@
   </si>
   <si>
     <t>Центры переливания призвали петербуржцев сдать кровь перед новогодними праздниками</t>
-  </si>
-  <si>
-    <t>локальное</t>
   </si>
   <si>
     <t>глобальное</t>
@@ -395,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,14 +340,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -486,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -516,24 +423,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -553,143 +451,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -972,25 +733,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="143.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1001,1320 +762,1045 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43101</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>43160</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>43101</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>43132</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43160</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43160</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>43252</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
         <v>43344</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>43405</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>43344</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43556</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43617</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43617</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>43647</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>43709</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43800</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43800</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>44</v>
+      <c r="B29" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43800</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>43831</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>43831</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>43831</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43862</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>4</v>
+      <c r="B36" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
-        <v>43862</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>55</v>
+        <v>43891</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>43862</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>56</v>
+        <v>43891</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>43891</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>43891</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>43922</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43922</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>43922</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>43922</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>43952</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>43952</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>43983</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>43983</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>44013</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>44044</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>44075</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>44166</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
-        <v>44197</v>
+        <v>44317</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
-        <v>44197</v>
+        <v>44348</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
-        <v>44256</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>8</v>
+        <v>44348</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="C79" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
-        <v>44317</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>10</v>
+        <v>44348</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
-        <v>44317</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>11</v>
+        <v>44348</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
-        <v>44317</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>12</v>
+        <v>44378</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
-        <v>44317</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>47</v>
+        <v>44378</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
-        <v>44317</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>48</v>
+        <v>44378</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
-        <v>44348</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>86</v>
+        <v>44470</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
-        <v>44348</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>13</v>
+        <v>44470</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
-        <v>44348</v>
+        <v>44531</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
-        <v>44348</v>
+        <v>44531</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
-        <v>44348</v>
+        <v>44531</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
-        <v>44378</v>
+        <v>44531</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
-        <v>44378</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
-        <v>44378</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <v>44378</v>
-      </c>
-      <c r="B99" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <v>44409</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <v>44409</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
-        <v>44409</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
-        <v>44409</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
-        <v>44409</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="144" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
-        <v>44470</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
-        <v>44470</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
-        <v>44470</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
-        <v>44501</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:C121">
+  <conditionalFormatting sqref="A3:C96">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C3 ="донорские"</formula>
     </cfRule>
